--- a/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,18%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>8,72; 16,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>7,02; 14,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>16,36; 25,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>10,81; 19,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>8,86; 17,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>15,49; 22,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>10,67; 16,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,81; 14,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>17,51; 23,07</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>8,17; 14,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>12,65; 19,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>12,75; 19,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>12,37; 19,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>14,8; 21,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>17,02; 24,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>19,12; 26,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>12,73; 17,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,28; 16,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>15,95; 20,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,06; 21,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>13,38; 17,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,47%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>10,18; 17,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>14,17; 23,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>11,73; 19,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>18,87; 26,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>15,0; 23,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>18,51; 27,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>11,96; 20,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>20,82; 28,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>14,01; 19,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>17,74; 24,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>12,9; 18,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>20,75; 26,31</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,52%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>10,03; 16,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>12,7; 18,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>13,22; 20,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>16,2; 25,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>14,52; 22,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,83; 24,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>17,07; 26,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>17,18; 24,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>13,27; 18,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>16,07; 20,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>16,51; 22,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>17,9; 23,32</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,98%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>5,46; 13,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>10,91; 21,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>7,09; 16,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>14,59; 23,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>7,91; 17,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>21,08; 32,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>14,37; 25,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>22,61; 30,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,49; 13,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>16,98; 24,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>12,0; 18,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>20,08; 26,08</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,69%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>11,58; 20,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>17,93; 28,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>10,23; 18,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>23,69; 32,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>14,63; 24,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>18,36; 28,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>12,36; 22,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>19,85; 27,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>14,04; 20,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>19,42; 26,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>12,22; 18,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>22,97; 28,84</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,38%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>11,98; 17,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>15,11; 21,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>12,17; 17,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>15,64; 22,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>15,54; 21,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>19,48; 26,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>11,67; 17,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,98; 57,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,61; 18,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,33; 22,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>12,67; 16,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>18,64; 43,46</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>9,55; 14,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>11,65; 16,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>13,62; 19,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>13,33; 19,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>10,87; 15,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>14,08; 19,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>15,63; 21,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>19,58; 24,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,01; 14,32</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>13,56; 17,29</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>15,36; 19,48</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>17,36; 21,51</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,61; 13,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,38; 18,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,57; 15,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,83; 20,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,53; 18,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>19,46; 22,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,42; 19,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>20,47; 30,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>13,76; 15,46</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,93; 19,82</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,46; 17,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>19,77; 26,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,29; 16,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,36; 25,92</t>
+          <t>14,98; 24,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,95; 20,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 22,25</t>
+          <t>14,89; 21,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,96; 17,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 23,07</t>
+          <t>16,24; 21,77</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,09%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 19,67</t>
+          <t>11,76; 18,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 17,84</t>
+          <t>12,51; 17,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 17,59</t>
+          <t>12,87; 17,03</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>22,92%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 26,9</t>
+          <t>18,27; 26,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,82; 28,08</t>
+          <t>20,44; 27,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 26,31</t>
+          <t>20,24; 25,67</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,66</t>
+          <t>14,2; 22,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 25,44</t>
+          <t>15,69; 24,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 24,07</t>
+          <t>20,82; 29,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 24,03</t>
+          <t>10,51; 22,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 20,44</t>
+          <t>18,57; 24,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,32</t>
+          <t>13,49; 21,73</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>23,09%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,59; 23,57</t>
+          <t>14,68; 23,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,61; 30,19</t>
+          <t>22,89; 30,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,08</t>
+          <t>20,19; 26,23</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,69; 32,65</t>
+          <t>23,25; 32,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,85; 27,26</t>
+          <t>19,83; 27,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,97; 28,84</t>
+          <t>22,78; 28,67</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,09</t>
+          <t>14,96; 21,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,98; 57,33</t>
+          <t>18,78; 70,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 43,46</t>
+          <t>18,08; 55,29</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,64</t>
+          <t>6,19; 19,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,58; 24,95</t>
+          <t>19,88; 25,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,36; 21,51</t>
+          <t>11,07; 20,88</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,83; 20,6</t>
+          <t>13,47; 19,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,47; 30,5</t>
+          <t>19,74; 37,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,77; 26,44</t>
+          <t>18,38; 30,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,42</t>
+          <t>8,75; 16,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 16,12</t>
+          <t>8,38; 16,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 14,26</t>
+          <t>6,88; 14,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,98; 24,26</t>
+          <t>15,26; 24,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 19,33</t>
+          <t>10,69; 19,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 20,83</t>
+          <t>11,6; 20,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 17,03</t>
+          <t>9,07; 17,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 21,45</t>
+          <t>15,33; 22,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 16,23</t>
+          <t>10,88; 16,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 17,04</t>
+          <t>10,85; 17,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,33</t>
+          <t>8,79; 14,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 21,77</t>
+          <t>16,34; 21,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 14,03</t>
+          <t>8,37; 14,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,79</t>
+          <t>12,45; 19,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,75; 19,55</t>
+          <t>12,75; 19,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 18,85</t>
+          <t>12,01; 19,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 21,35</t>
+          <t>14,6; 21,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 24,18</t>
+          <t>17,02; 24,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 26,7</t>
+          <t>18,86; 26,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,51; 17,53</t>
+          <t>12,65; 17,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,82</t>
+          <t>12,34; 16,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 20,89</t>
+          <t>15,84; 20,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 21,97</t>
+          <t>16,84; 22,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,03</t>
+          <t>13,1; 17,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,95</t>
+          <t>10,36; 17,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,17; 23,24</t>
+          <t>14,15; 23,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 19,52</t>
+          <t>12,15; 19,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 26,33</t>
+          <t>17,95; 26,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 23,85</t>
+          <t>15,61; 24,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 27,95</t>
+          <t>18,38; 27,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 20,04</t>
+          <t>11,11; 19,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 27,63</t>
+          <t>20,53; 27,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,01; 19,69</t>
+          <t>13,98; 19,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 24,09</t>
+          <t>17,65; 24,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,28</t>
+          <t>12,87; 18,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,24; 25,67</t>
+          <t>20,51; 26,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,68</t>
+          <t>10,0; 17,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 22,65</t>
+          <t>14,57; 22,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,22; 20,99</t>
+          <t>13,32; 20,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 24,82</t>
+          <t>15,46; 24,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 22,39</t>
+          <t>14,38; 21,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,82; 29,39</t>
+          <t>20,47; 29,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 26,56</t>
+          <t>16,92; 25,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 22,22</t>
+          <t>10,35; 22,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 18,32</t>
+          <t>13,24; 18,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 24,67</t>
+          <t>18,73; 24,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,35</t>
+          <t>16,38; 22,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 21,73</t>
+          <t>13,56; 21,87</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 13,24</t>
+          <t>5,64; 13,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,91; 21,06</t>
+          <t>10,86; 20,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 16,13</t>
+          <t>7,11; 15,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 23,58</t>
+          <t>15,16; 23,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 17,07</t>
+          <t>7,89; 17,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,08; 32,3</t>
+          <t>20,31; 32,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,37; 25,11</t>
+          <t>14,58; 25,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 30,34</t>
+          <t>23,09; 30,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,63</t>
+          <t>7,85; 13,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 24,97</t>
+          <t>17,15; 25,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,0; 18,72</t>
+          <t>11,8; 18,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,19; 26,23</t>
+          <t>20,33; 26,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,58; 20,54</t>
+          <t>11,48; 20,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,93; 28,6</t>
+          <t>18,31; 28,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,23; 18,11</t>
+          <t>9,68; 18,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,25; 32,15</t>
+          <t>23,19; 32,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 24,24</t>
+          <t>14,88; 24,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 28,46</t>
+          <t>18,24; 28,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,36; 22,04</t>
+          <t>12,67; 21,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,83; 27,25</t>
+          <t>20,08; 27,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,04; 20,74</t>
+          <t>14,62; 20,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,55</t>
+          <t>19,41; 26,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,45</t>
+          <t>12,27; 18,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,78; 28,67</t>
+          <t>22,68; 28,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,49</t>
+          <t>11,59; 17,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,11; 21,9</t>
+          <t>15,33; 21,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,17; 17,68</t>
+          <t>12,09; 17,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,96; 21,13</t>
+          <t>14,68; 20,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,81</t>
+          <t>15,68; 21,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,48; 26,31</t>
+          <t>19,43; 26,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,12</t>
+          <t>11,59; 16,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,78; 70,5</t>
+          <t>18,98; 65,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,61; 18,77</t>
+          <t>14,66; 18,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,33; 22,86</t>
+          <t>18,25; 22,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,67; 16,53</t>
+          <t>12,62; 16,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,08; 55,29</t>
+          <t>18,11; 57,96</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,55; 14,09</t>
+          <t>9,54; 14,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,65; 16,87</t>
+          <t>11,71; 16,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,11</t>
+          <t>13,72; 18,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,19; 19,0</t>
+          <t>5,97; 19,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,9</t>
+          <t>10,77; 15,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,6</t>
+          <t>13,71; 19,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,63; 21,57</t>
+          <t>15,8; 21,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,88; 25,21</t>
+          <t>19,83; 25,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,01; 14,32</t>
+          <t>10,81; 14,28</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,56; 17,29</t>
+          <t>13,62; 17,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,36; 19,48</t>
+          <t>15,49; 19,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,07; 20,88</t>
+          <t>10,62; 20,89</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,82</t>
+          <t>11,59; 13,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,38; 18,01</t>
+          <t>15,25; 18,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,57; 15,99</t>
+          <t>13,68; 16,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,44</t>
+          <t>13,67; 19,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,1</t>
+          <t>15,41; 18,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,46; 22,4</t>
+          <t>19,62; 22,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,24</t>
+          <t>16,43; 19,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,74; 37,13</t>
+          <t>19,8; 39,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,76; 15,46</t>
+          <t>13,84; 15,6</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17,93; 19,82</t>
+          <t>17,85; 19,77</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,32</t>
+          <t>15,46; 17,33</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,38; 30,77</t>
+          <t>18,5; 30,12</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33540</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34954</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30058</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>60448</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38439</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>44335</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36738</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>53598</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>71979</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>79289</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>66796</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>114046</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23892; 43863</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24546; 48627</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20196; 42466</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>47516; 75286</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27893; 49802</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32738; 58280</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26179; 50092</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44396; 63730</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58062; 89675</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>62407; 98104</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51194; 82013</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>98207; 131493</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53058</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>80010</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80443</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>78392</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>90070</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>107062</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>118153</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>77097</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>143128</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>187072</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>198597</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>155489</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41272; 69228</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>62914; 98400</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>64093; 98849</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>62046; 98634</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>73558; 106749</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>88994; 126953</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>98657; 139749</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>65002; 91863</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>122994; 166783</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>162829; 214775</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>172683; 225841</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>134970; 176725</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43574</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59003</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48748</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68711</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65773</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>77878</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52169</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83770</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>109347</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>136881</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>100917</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>152481</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33048; 56055</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45710; 76016</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38721; 62988</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56736; 82446</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52364; 82636</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62695; 93060</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37365; 67069</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>71665; 97294</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>91470; 128608</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>117205; 159711</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84270; 120636</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>136456; 174070</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47563</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>68375</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>62207</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>62210</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>67821</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>95960</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>83555</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>82961</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115384</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>164336</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>145762</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>145171</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35880; 61208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>54475; 85896</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>49289; 77284</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48329; 76892</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53398; 81676</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79433; 114648</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65522; 100650</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49216; 106630</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>96639; 134437</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>142678; 189114</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>124018; 170750</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>106867; 172408</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17951</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33103</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22973</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34166</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24898</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>57874</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42275</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>55302</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42849</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>90977</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>65248</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>89468</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11471; 27120</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23083; 44585</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15010; 33597</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27092; 42453</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16384; 36921</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>44602; 71936</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31862; 56053</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>48179; 63502</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32262; 57274</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>74108; 108315</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>50701; 80907</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>78766; 101609</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>62777</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>36212</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>73811</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>53712</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>63564</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>45375</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>60405</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>95796</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>126341</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>81587</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>134216</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31083; 54873</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>50174; 78325</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25467; 49083</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>62523; 86698</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>41393; 68999</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>50914; 78713</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>34613; 59598</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>51620; 70421</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>80251; 114658</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>107379; 146597</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>65820; 99212</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>119460; 149624</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>88809</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>120839</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>96985</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>110350</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>118630</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>159037</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>97848</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>330471</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>207439</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>279876</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>194832</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>440820</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>71297; 107892</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>101609; 140512</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>79371; 116065</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>91645; 129491</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>100080; 136919</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>134823; 181951</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>80121; 116778</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>161194; 557995</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>183703; 235919</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>247534; 306763</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>170076; 225255</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>266907; 854083</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>86982</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>110293</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>125962</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>125251</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>104041</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>135830</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>153411</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>159037</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>191023</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>246123</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>279373</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>284288</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>70891; 104585</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>91012; 131814</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>106790; 147097</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>55473; 179654</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>84387; 123653</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>112445; 156892</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>130564; 179597</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>141768; 179168</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>164976; 217924</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>217498; 275684</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>248593; 312185</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>174550; 343384</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>413562</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>569354</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>503588</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>613339</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>563384</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>741541</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>629524</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>902641</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>976946</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1310894</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1133112</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1515979</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>379776; 455223</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>521960; 617425</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>464438; 546579</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>472651; 678362</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>520780; 611006</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>695928; 791566</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>582339; 677238</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>724417; 1439981</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>920899; 1037997</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1243721; 1377777</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1072519; 1202296</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1316310; 2143246</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>